--- a/data/feedback-benchmark/model_analysis/gpt-4o-2024-08-06/per_feedback_score_antisyco.xlsx
+++ b/data/feedback-benchmark/model_analysis/gpt-4o-2024-08-06/per_feedback_score_antisyco.xlsx
@@ -8,35 +8,32 @@
   </bookViews>
   <sheets>
     <sheet name="gpt-4o-2024-05-13" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="yi-large" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="internlm2_5-20b-chat" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="glm-4-0520" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="gpt-4o-mini-2024-07-18" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="gpt-4-turbo-2024-04-09" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="moonshot-v1-32k" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="claude-3-5-sonnet-20240620" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Yi-1.5-9B-Chat" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="ERNIE-4.0-8K-0329" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Mistral-7B-Instruct-v0.3" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="gemma-2-9b-it" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="glm-4-9b-chat" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Qwen2.5-72B-Instruct" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Yi-1.5-9B-Chat-16K" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="internlm2_5-20b-chat" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="glm-4-0520" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="gpt-4o-mini-2024-07-18" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="moonshot-v1-32k" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="claude-3-5-sonnet-20240620" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="yi-lightning" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Yi-1.5-9B-Chat" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="ERNIE-4.0-8K-0329" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Ministral-8B-Instruct-2410" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="gemma-2-9b-it" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Mistral-Large-Instruct-2411" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="gpt-4o-2024-11-20" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="glm-4-9b-chat" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Qwen2.5-72B-Instruct" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="Yi-1.5-34B-Chat" sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="Meta-Llama-3.1-8B-Instruct" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="gemma-2-27b-it" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Qwen2-72B-Instruct" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Phi-3-small-8k-instruct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Mistral-Large-Instruct-2407" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="DeepSeek-V2.5" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="qwen-max-0919" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Qwen2-7B-Instruct" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="internlm2_5-7b-chat" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Qwen2.5-7B-Instruct" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="DeepSeek-Coder-V2-Lite-Instruct" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="Meta-Llama-3.1-70B-Instruct" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="Yi-1.5-34B-Chat-16K" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="Phi-3-medium-4k-instruct" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="phi-4" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="gemma-2-27b-it" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="qwen-max-0919" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="internlm3-8b-instruct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="DeepSeek-V3" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="internlm2_5-7b-chat" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="claude-3-5-sonnet-20241022" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Qwen2.5-7B-Instruct" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Meta-Llama-3.1-70B-Instruct" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Phi-3-medium-4k-instruct" sheetId="27" state="visible" r:id="rId27"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -492,10 +489,10 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>50.81</v>
+        <v>63.26</v>
       </c>
       <c r="D2" t="n">
-        <v>50.81</v>
+        <v>63.26</v>
       </c>
     </row>
     <row r="3">
@@ -506,10 +503,10 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>52.9</v>
+        <v>56.94</v>
       </c>
       <c r="D3" t="n">
-        <v>52.9</v>
+        <v>56.94</v>
       </c>
     </row>
     <row r="4">
@@ -520,10 +517,10 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>56.37</v>
+        <v>71.29000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>56.37</v>
+        <v>71.29000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -534,10 +531,10 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>49.64</v>
+        <v>65.69</v>
       </c>
       <c r="D5" t="n">
-        <v>49.64</v>
+        <v>65.69</v>
       </c>
     </row>
   </sheetData>
@@ -589,10 +586,10 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>66.64</v>
+        <v>44.3</v>
       </c>
       <c r="D2" t="n">
-        <v>66.64</v>
+        <v>44.3</v>
       </c>
     </row>
     <row r="3">
@@ -603,10 +600,10 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>65.06999999999999</v>
+        <v>40.35</v>
       </c>
       <c r="D3" t="n">
-        <v>65.06999999999999</v>
+        <v>40.35</v>
       </c>
     </row>
     <row r="4">
@@ -617,10 +614,10 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>61.98</v>
+        <v>67.18000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>61.98</v>
+        <v>67.18000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -631,10 +628,10 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>46.96</v>
+        <v>58.77</v>
       </c>
       <c r="D5" t="n">
-        <v>46.96</v>
+        <v>58.77</v>
       </c>
     </row>
   </sheetData>
@@ -686,10 +683,10 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>18.91</v>
+        <v>31.61</v>
       </c>
       <c r="D2" t="n">
-        <v>18.91</v>
+        <v>31.61</v>
       </c>
     </row>
     <row r="3">
@@ -700,10 +697,10 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>26.35</v>
+        <v>36.88</v>
       </c>
       <c r="D3" t="n">
-        <v>26.35</v>
+        <v>36.88</v>
       </c>
     </row>
     <row r="4">
@@ -714,10 +711,10 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>26.95</v>
+        <v>52.71</v>
       </c>
       <c r="D4" t="n">
-        <v>26.95</v>
+        <v>52.71</v>
       </c>
     </row>
     <row r="5">
@@ -728,10 +725,10 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>43.39</v>
+        <v>81.31</v>
       </c>
       <c r="D5" t="n">
-        <v>43.39</v>
+        <v>81.31</v>
       </c>
     </row>
   </sheetData>
@@ -783,10 +780,10 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>18.62</v>
+        <v>74.01000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>18.62</v>
+        <v>74.01000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -797,10 +794,10 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>19.09</v>
+        <v>57.24</v>
       </c>
       <c r="D3" t="n">
-        <v>19.09</v>
+        <v>57.24</v>
       </c>
     </row>
     <row r="4">
@@ -811,10 +808,10 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>19.05</v>
+        <v>69.45999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>19.05</v>
+        <v>69.45999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -825,10 +822,10 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>56.79</v>
+        <v>89.77</v>
       </c>
       <c r="D5" t="n">
-        <v>56.79</v>
+        <v>89.77</v>
       </c>
     </row>
   </sheetData>
@@ -880,10 +877,10 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>38.7</v>
+        <v>66.81</v>
       </c>
       <c r="D2" t="n">
-        <v>38.7</v>
+        <v>66.81</v>
       </c>
     </row>
     <row r="3">
@@ -894,10 +891,10 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>27.71</v>
+        <v>65.62</v>
       </c>
       <c r="D3" t="n">
-        <v>27.71</v>
+        <v>65.62</v>
       </c>
     </row>
     <row r="4">
@@ -908,10 +905,10 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>35.01</v>
+        <v>79.51000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>35.01</v>
+        <v>79.51000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -922,10 +919,10 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>25.48</v>
+        <v>88</v>
       </c>
       <c r="D5" t="n">
-        <v>25.48</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -977,10 +974,10 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>61.94</v>
+        <v>55.97</v>
       </c>
       <c r="D2" t="n">
-        <v>61.94</v>
+        <v>55.97</v>
       </c>
     </row>
     <row r="3">
@@ -991,10 +988,10 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>58.37</v>
+        <v>40.23</v>
       </c>
       <c r="D3" t="n">
-        <v>58.37</v>
+        <v>40.23</v>
       </c>
     </row>
     <row r="4">
@@ -1005,10 +1002,10 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>65.70999999999999</v>
+        <v>66.61</v>
       </c>
       <c r="D4" t="n">
-        <v>65.70999999999999</v>
+        <v>66.61</v>
       </c>
     </row>
     <row r="5">
@@ -1019,10 +1016,10 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>64.17</v>
+        <v>63.16</v>
       </c>
       <c r="D5" t="n">
-        <v>64.17</v>
+        <v>63.16</v>
       </c>
     </row>
   </sheetData>
@@ -1074,10 +1071,10 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>41.48</v>
+        <v>69.81</v>
       </c>
       <c r="D2" t="n">
-        <v>41.48</v>
+        <v>69.81</v>
       </c>
     </row>
     <row r="3">
@@ -1088,10 +1085,10 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>49.67</v>
+        <v>56.34</v>
       </c>
       <c r="D3" t="n">
-        <v>49.67</v>
+        <v>56.34</v>
       </c>
     </row>
     <row r="4">
@@ -1102,10 +1099,10 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>43.41</v>
+        <v>82.7</v>
       </c>
       <c r="D4" t="n">
-        <v>43.41</v>
+        <v>82.7</v>
       </c>
     </row>
     <row r="5">
@@ -1116,10 +1113,10 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>50.12</v>
+        <v>75.38</v>
       </c>
       <c r="D5" t="n">
-        <v>50.12</v>
+        <v>75.38</v>
       </c>
     </row>
   </sheetData>
@@ -1171,10 +1168,10 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>50.79</v>
       </c>
       <c r="D2" t="n">
-        <v>27</v>
+        <v>50.79</v>
       </c>
     </row>
     <row r="3">
@@ -1185,10 +1182,10 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>42.85</v>
+        <v>53.51</v>
       </c>
       <c r="D3" t="n">
-        <v>42.85</v>
+        <v>53.51</v>
       </c>
     </row>
     <row r="4">
@@ -1199,10 +1196,10 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>34.06</v>
+        <v>65.16</v>
       </c>
       <c r="D4" t="n">
-        <v>34.06</v>
+        <v>65.16</v>
       </c>
     </row>
     <row r="5">
@@ -1213,10 +1210,10 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>59.17</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>59.17</v>
+        <v>83.90000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1268,10 +1265,10 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>20.39</v>
+        <v>40.68</v>
       </c>
       <c r="D2" t="n">
-        <v>20.39</v>
+        <v>40.68</v>
       </c>
     </row>
     <row r="3">
@@ -1282,10 +1279,10 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>18.67</v>
+        <v>24.68</v>
       </c>
       <c r="D3" t="n">
-        <v>18.67</v>
+        <v>24.68</v>
       </c>
     </row>
     <row r="4">
@@ -1296,10 +1293,10 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>30.31</v>
+        <v>44.72</v>
       </c>
       <c r="D4" t="n">
-        <v>30.31</v>
+        <v>44.72</v>
       </c>
     </row>
     <row r="5">
@@ -1310,10 +1307,10 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>33.63</v>
+        <v>49.3</v>
       </c>
       <c r="D5" t="n">
-        <v>33.63</v>
+        <v>49.3</v>
       </c>
     </row>
   </sheetData>
@@ -1365,10 +1362,10 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>19.73</v>
+        <v>70.13</v>
       </c>
       <c r="D2" t="n">
-        <v>19.73</v>
+        <v>70.13</v>
       </c>
     </row>
     <row r="3">
@@ -1379,10 +1376,10 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>28.43</v>
+        <v>59.55</v>
       </c>
       <c r="D3" t="n">
-        <v>28.43</v>
+        <v>59.55</v>
       </c>
     </row>
     <row r="4">
@@ -1393,10 +1390,10 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>28.81</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>28.81</v>
+        <v>84.79000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1407,10 +1404,10 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>56.49</v>
+        <v>86.23</v>
       </c>
       <c r="D5" t="n">
-        <v>56.49</v>
+        <v>86.23</v>
       </c>
     </row>
   </sheetData>
@@ -1462,10 +1459,10 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>60.3</v>
+        <v>40.69</v>
       </c>
       <c r="D2" t="n">
-        <v>60.3</v>
+        <v>40.69</v>
       </c>
     </row>
     <row r="3">
@@ -1476,10 +1473,10 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>51.52</v>
+        <v>38.75</v>
       </c>
       <c r="D3" t="n">
-        <v>51.52</v>
+        <v>38.75</v>
       </c>
     </row>
     <row r="4">
@@ -1490,10 +1487,10 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>55.67</v>
+        <v>56.3</v>
       </c>
       <c r="D4" t="n">
-        <v>55.67</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="5">
@@ -1504,10 +1501,10 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>57.5</v>
+        <v>80.28</v>
       </c>
       <c r="D5" t="n">
-        <v>57.5</v>
+        <v>80.28</v>
       </c>
     </row>
   </sheetData>
@@ -1559,10 +1556,10 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>47.79</v>
+        <v>78.76000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>47.79</v>
+        <v>78.76000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -1573,10 +1570,10 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>41.61</v>
+        <v>59.1</v>
       </c>
       <c r="D3" t="n">
-        <v>41.61</v>
+        <v>59.1</v>
       </c>
     </row>
     <row r="4">
@@ -1587,10 +1584,10 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>50.52</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>50.52</v>
+        <v>75.01000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1601,10 +1598,10 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>62.74</v>
+        <v>83.42</v>
       </c>
       <c r="D5" t="n">
-        <v>62.74</v>
+        <v>83.42</v>
       </c>
     </row>
   </sheetData>
@@ -1656,10 +1653,10 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>44.77</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>44.77</v>
+        <v>66.40000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -1670,10 +1667,10 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>50.99</v>
+        <v>62.41</v>
       </c>
       <c r="D3" t="n">
-        <v>50.99</v>
+        <v>62.41</v>
       </c>
     </row>
     <row r="4">
@@ -1684,10 +1681,10 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>51.13</v>
+        <v>79.84</v>
       </c>
       <c r="D4" t="n">
-        <v>51.13</v>
+        <v>79.84</v>
       </c>
     </row>
     <row r="5">
@@ -1698,10 +1695,10 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>54.82</v>
+        <v>93.93000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>54.82</v>
+        <v>93.93000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1753,10 +1750,10 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>43.26</v>
+        <v>83.81</v>
       </c>
       <c r="D2" t="n">
-        <v>43.26</v>
+        <v>83.81</v>
       </c>
     </row>
     <row r="3">
@@ -1767,10 +1764,10 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>42.67</v>
+        <v>68.48999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>42.67</v>
+        <v>68.48999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -1781,10 +1778,10 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>49.95</v>
+        <v>87.86</v>
       </c>
       <c r="D4" t="n">
-        <v>49.95</v>
+        <v>87.86</v>
       </c>
     </row>
     <row r="5">
@@ -1795,10 +1792,10 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>38.04</v>
+        <v>91.31999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>38.04</v>
+        <v>91.31999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1850,10 +1847,10 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>43.49</v>
+        <v>69.73</v>
       </c>
       <c r="D2" t="n">
-        <v>43.49</v>
+        <v>69.73</v>
       </c>
     </row>
     <row r="3">
@@ -1864,10 +1861,10 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>46.15</v>
+        <v>63.72</v>
       </c>
       <c r="D3" t="n">
-        <v>46.15</v>
+        <v>63.72</v>
       </c>
     </row>
     <row r="4">
@@ -1878,10 +1875,10 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>46.32</v>
+        <v>82.43000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>46.32</v>
+        <v>82.43000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1892,10 +1889,10 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>48.04</v>
+        <v>89.34</v>
       </c>
       <c r="D5" t="n">
-        <v>48.04</v>
+        <v>89.34</v>
       </c>
     </row>
   </sheetData>
@@ -1947,10 +1944,10 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>58.63</v>
+        <v>56.07</v>
       </c>
       <c r="D2" t="n">
-        <v>58.63</v>
+        <v>56.07</v>
       </c>
     </row>
     <row r="3">
@@ -1961,10 +1958,10 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>58.85</v>
+        <v>65.09</v>
       </c>
       <c r="D3" t="n">
-        <v>58.85</v>
+        <v>65.09</v>
       </c>
     </row>
     <row r="4">
@@ -1975,10 +1972,10 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>63.82</v>
+        <v>75.48999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>63.82</v>
+        <v>75.48999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1989,10 +1986,10 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>66.67</v>
+        <v>79.44</v>
       </c>
       <c r="D5" t="n">
-        <v>66.67</v>
+        <v>79.44</v>
       </c>
     </row>
   </sheetData>
@@ -2044,10 +2041,10 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>43.45</v>
+        <v>61.16</v>
       </c>
       <c r="D2" t="n">
-        <v>43.45</v>
+        <v>61.16</v>
       </c>
     </row>
     <row r="3">
@@ -2058,10 +2055,10 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>44.32</v>
+        <v>66.06</v>
       </c>
       <c r="D3" t="n">
-        <v>44.32</v>
+        <v>66.06</v>
       </c>
     </row>
     <row r="4">
@@ -2072,10 +2069,10 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>59.18</v>
+        <v>71.34999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>59.18</v>
+        <v>71.34999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -2086,10 +2083,10 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>43.99</v>
+        <v>81.65000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>43.99</v>
+        <v>81.65000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2141,10 +2138,10 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>43.53</v>
+        <v>52.91</v>
       </c>
       <c r="D2" t="n">
-        <v>43.53</v>
+        <v>52.91</v>
       </c>
     </row>
     <row r="3">
@@ -2155,10 +2152,10 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>62.87</v>
+        <v>52.29</v>
       </c>
       <c r="D3" t="n">
-        <v>62.87</v>
+        <v>52.29</v>
       </c>
     </row>
     <row r="4">
@@ -2169,10 +2166,10 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>54.82</v>
+        <v>71.31</v>
       </c>
       <c r="D4" t="n">
-        <v>54.82</v>
+        <v>71.31</v>
       </c>
     </row>
     <row r="5">
@@ -2183,10 +2180,10 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>49.29</v>
+        <v>49.41</v>
       </c>
       <c r="D5" t="n">
-        <v>49.29</v>
+        <v>49.41</v>
       </c>
     </row>
   </sheetData>
@@ -2238,10 +2235,10 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>45.9</v>
+        <v>46.64</v>
       </c>
       <c r="D2" t="n">
-        <v>45.9</v>
+        <v>46.64</v>
       </c>
     </row>
     <row r="3">
@@ -2252,10 +2249,10 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>43.34</v>
+        <v>44.79</v>
       </c>
       <c r="D3" t="n">
-        <v>43.34</v>
+        <v>44.79</v>
       </c>
     </row>
     <row r="4">
@@ -2266,10 +2263,10 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>56.03</v>
+        <v>60.77</v>
       </c>
       <c r="D4" t="n">
-        <v>56.03</v>
+        <v>60.77</v>
       </c>
     </row>
     <row r="5">
@@ -2280,10 +2277,10 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>42.02</v>
+        <v>66.58</v>
       </c>
       <c r="D5" t="n">
-        <v>42.02</v>
+        <v>66.58</v>
       </c>
     </row>
   </sheetData>
@@ -2335,10 +2332,10 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>31.06</v>
+        <v>63.05</v>
       </c>
       <c r="D2" t="n">
-        <v>31.06</v>
+        <v>63.05</v>
       </c>
     </row>
     <row r="3">
@@ -2349,10 +2346,10 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>32.71</v>
+        <v>52.21</v>
       </c>
       <c r="D3" t="n">
-        <v>32.71</v>
+        <v>52.21</v>
       </c>
     </row>
     <row r="4">
@@ -2363,10 +2360,10 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>39.73</v>
+        <v>80</v>
       </c>
       <c r="D4" t="n">
-        <v>39.73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
@@ -2377,204 +2374,10 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>41.07</v>
+        <v>72.45</v>
       </c>
       <c r="D5" t="n">
-        <v>41.07</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>feedback_type</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>error_correct_score</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>response_maintenance_score</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>overall_score</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Credibility Support</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
-        <v>32.65</v>
-      </c>
-      <c r="D2" t="n">
-        <v>32.65</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Misinformation</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="n">
-        <v>24.41</v>
-      </c>
-      <c r="D3" t="n">
-        <v>24.41</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Simple Questioning</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
-        <v>33.32</v>
-      </c>
-      <c r="D4" t="n">
-        <v>33.32</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Unreasonable Requests</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
-        <v>38.21</v>
-      </c>
-      <c r="D5" t="n">
-        <v>38.21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>feedback_type</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>error_correct_score</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>response_maintenance_score</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>overall_score</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Credibility Support</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
-        <v>43.75</v>
-      </c>
-      <c r="D2" t="n">
-        <v>43.75</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Misinformation</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="n">
-        <v>41.67</v>
-      </c>
-      <c r="D3" t="n">
-        <v>41.67</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Simple Questioning</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
-        <v>44.38</v>
-      </c>
-      <c r="D4" t="n">
-        <v>44.38</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Unreasonable Requests</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
-        <v>53.69</v>
-      </c>
-      <c r="D5" t="n">
-        <v>53.69</v>
+        <v>72.45</v>
       </c>
     </row>
   </sheetData>
@@ -2626,10 +2429,10 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>59.3</v>
+        <v>71.97</v>
       </c>
       <c r="D2" t="n">
-        <v>59.3</v>
+        <v>71.97</v>
       </c>
     </row>
     <row r="3">
@@ -2640,10 +2443,10 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>61.51</v>
+        <v>63.93</v>
       </c>
       <c r="D3" t="n">
-        <v>61.51</v>
+        <v>63.93</v>
       </c>
     </row>
     <row r="4">
@@ -2654,10 +2457,10 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>52.96</v>
+        <v>77.79000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>52.96</v>
+        <v>77.79000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -2668,107 +2471,10 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>60.36</v>
+        <v>85.92</v>
       </c>
       <c r="D5" t="n">
-        <v>60.36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>feedback_type</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>error_correct_score</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>response_maintenance_score</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>overall_score</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Credibility Support</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
-        <v>46.44</v>
-      </c>
-      <c r="D2" t="n">
-        <v>46.44</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Misinformation</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="n">
-        <v>51.67</v>
-      </c>
-      <c r="D3" t="n">
-        <v>51.67</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Simple Questioning</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
-        <v>64.87</v>
-      </c>
-      <c r="D4" t="n">
-        <v>64.87</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Unreasonable Requests</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
-        <v>45.77</v>
-      </c>
-      <c r="D5" t="n">
-        <v>45.77</v>
+        <v>85.92</v>
       </c>
     </row>
   </sheetData>
@@ -2820,10 +2526,10 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>52.86</v>
+        <v>62.87</v>
       </c>
       <c r="D2" t="n">
-        <v>52.86</v>
+        <v>62.87</v>
       </c>
     </row>
     <row r="3">
@@ -2834,10 +2540,10 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>52.58</v>
+        <v>52.99</v>
       </c>
       <c r="D3" t="n">
-        <v>52.58</v>
+        <v>52.99</v>
       </c>
     </row>
     <row r="4">
@@ -2848,10 +2554,10 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>51.96</v>
+        <v>71.37</v>
       </c>
       <c r="D4" t="n">
-        <v>51.96</v>
+        <v>71.37</v>
       </c>
     </row>
     <row r="5">
@@ -2862,10 +2568,10 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>55.18</v>
+        <v>72.73</v>
       </c>
       <c r="D5" t="n">
-        <v>55.18</v>
+        <v>72.73</v>
       </c>
     </row>
   </sheetData>
@@ -2917,10 +2623,10 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>51.91</v>
+        <v>68.45</v>
       </c>
       <c r="D2" t="n">
-        <v>51.91</v>
+        <v>68.45</v>
       </c>
     </row>
     <row r="3">
@@ -2931,10 +2637,10 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>45.54</v>
+        <v>52.47</v>
       </c>
       <c r="D3" t="n">
-        <v>45.54</v>
+        <v>52.47</v>
       </c>
     </row>
     <row r="4">
@@ -2945,10 +2651,10 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>51.44</v>
+        <v>77.8</v>
       </c>
       <c r="D4" t="n">
-        <v>51.44</v>
+        <v>77.8</v>
       </c>
     </row>
     <row r="5">
@@ -2959,10 +2665,10 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>47.38</v>
+        <v>85.2</v>
       </c>
       <c r="D5" t="n">
-        <v>47.38</v>
+        <v>85.2</v>
       </c>
     </row>
   </sheetData>
@@ -3014,10 +2720,10 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>56.41</v>
+        <v>60.26</v>
       </c>
       <c r="D2" t="n">
-        <v>56.41</v>
+        <v>60.26</v>
       </c>
     </row>
     <row r="3">
@@ -3028,10 +2734,10 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>50.5</v>
+        <v>47.83</v>
       </c>
       <c r="D3" t="n">
-        <v>50.5</v>
+        <v>47.83</v>
       </c>
     </row>
     <row r="4">
@@ -3042,10 +2748,10 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>51.73</v>
+        <v>71.56</v>
       </c>
       <c r="D4" t="n">
-        <v>51.73</v>
+        <v>71.56</v>
       </c>
     </row>
     <row r="5">
@@ -3056,10 +2762,10 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>64.17</v>
+        <v>85.93000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>64.17</v>
+        <v>85.93000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3111,10 +2817,10 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>46.35</v>
+        <v>52.42</v>
       </c>
       <c r="D2" t="n">
-        <v>46.35</v>
+        <v>52.42</v>
       </c>
     </row>
     <row r="3">
@@ -3125,10 +2831,10 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>39.58</v>
+        <v>60.37</v>
       </c>
       <c r="D3" t="n">
-        <v>39.58</v>
+        <v>60.37</v>
       </c>
     </row>
     <row r="4">
@@ -3139,10 +2845,10 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>56.32</v>
+        <v>76.54000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>56.32</v>
+        <v>76.54000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -3153,10 +2859,10 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>60.12</v>
+        <v>57.56</v>
       </c>
       <c r="D5" t="n">
-        <v>60.12</v>
+        <v>57.56</v>
       </c>
     </row>
   </sheetData>
@@ -3208,10 +2914,10 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>38.65</v>
+        <v>54.94</v>
       </c>
       <c r="D2" t="n">
-        <v>38.65</v>
+        <v>54.94</v>
       </c>
     </row>
     <row r="3">
@@ -3222,10 +2928,10 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>39.6</v>
+        <v>48.72</v>
       </c>
       <c r="D3" t="n">
-        <v>39.6</v>
+        <v>48.72</v>
       </c>
     </row>
     <row r="4">
@@ -3236,10 +2942,10 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>45.62</v>
+        <v>55.95</v>
       </c>
       <c r="D4" t="n">
-        <v>45.62</v>
+        <v>55.95</v>
       </c>
     </row>
     <row r="5">
@@ -3250,10 +2956,10 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>69.45999999999999</v>
+        <v>59.53</v>
       </c>
       <c r="D5" t="n">
-        <v>69.45999999999999</v>
+        <v>59.53</v>
       </c>
     </row>
   </sheetData>
@@ -3305,10 +3011,10 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>32.79</v>
+        <v>73.95</v>
       </c>
       <c r="D2" t="n">
-        <v>32.79</v>
+        <v>73.95</v>
       </c>
     </row>
     <row r="3">
@@ -3319,10 +3025,10 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>37.38</v>
+        <v>65.92</v>
       </c>
       <c r="D3" t="n">
-        <v>37.38</v>
+        <v>65.92</v>
       </c>
     </row>
     <row r="4">
@@ -3333,10 +3039,10 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>31.53</v>
+        <v>81.23</v>
       </c>
       <c r="D4" t="n">
-        <v>31.53</v>
+        <v>81.23</v>
       </c>
     </row>
     <row r="5">
@@ -3347,10 +3053,10 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>33.99</v>
+        <v>87.25</v>
       </c>
       <c r="D5" t="n">
-        <v>33.99</v>
+        <v>87.25</v>
       </c>
     </row>
   </sheetData>
